--- a/biology/Zoologie/Charinus_desirade/Charinus_desirade.xlsx
+++ b/biology/Zoologie/Charinus_desirade/Charinus_desirade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charinus desirade est une espèce d'amblypyges de la famille des Charinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de La Désirade en Guadeloupe[1]. Elle se rencontre sur le morne à Marthe.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de La Désirade en Guadeloupe. Elle se rencontre sur le morne à Marthe.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 4,95 mm et la femelle paratype 5,20 mm[2].
-La carapace du mâle holotype décrit par Miranda, Giupponi, Prendini et Scharff en 2021 mesure 1,95 mm de long sur 2,40 mm et celle de la femelle paratype 2,00 mm de long sur 3,20 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 4,95 mm et la femelle paratype 5,20 mm.
+La carapace du mâle holotype décrit par Miranda, Giupponi, Prendini et Scharff en 2021 mesure 1,95 mm de long sur 2,40 mm et celle de la femelle paratype 2,00 mm de long sur 3,20 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, La Désirade.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Teruel &amp; Questel, 2015 : « A new species of Charinus Simon, 1892 (Amblypygi: Charinidae) from Guadeloupe, Lesser Antilles. » Revista Ibérica de Aracnología, no 26, p. 43-47.</t>
         </is>
